--- a/datasetsMA/nitrogenlim.xlsx
+++ b/datasetsMA/nitrogenlim.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafif/Documents/Bachelor Thesis Stuff/bachelorsthesis/datasetsMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA3FAAB4-E1A8-7243-ADE6-2BCB7C0A9A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA504F-51BF-3D40-908B-E2EEB948D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FCD03B35-27D0-8640-9D52-693A2E0CE927}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16720" xr2:uid="{FCD03B35-27D0-8640-9D52-693A2E0CE927}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>time</t>
   </si>
@@ -60,6 +60,9 @@
   <si>
     <t>P</t>
   </si>
+  <si>
+    <t>MA</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,13 +86,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,18 +124,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,306 +474,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11D5EF3-0D43-1643-B5F1-92B07837C4C7}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.85</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0.76215505913272008</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>61.956666666666699</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="E2">
+        <v>12.303333333333335</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2.116666666581299</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1.866666666666646</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0.74375821287779231</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>56.941666666666663</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E3">
+        <v>16.473333333333336</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>4.0833333331975155</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.9166666666666405</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.68856767411300912</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>48.125</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E4">
+        <v>24.675000000000001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>6.2666666666627862</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.6166666666666747</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.65308804204993431</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>28.833333333333332</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="E5">
+        <v>41.156666666666666</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>8.0999999998603016</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3.9333333333333074</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0.54533508541392905</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="E6">
+        <v>59.951666666666668</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>10.083333333197515</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5.2166666666666472</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.36925098554533514</v>
       </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>70.034999999999997</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>12.116666666523088</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>8.5500000000000007</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>5.624178712220762E-2</v>
       </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>66.368333333333339</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>12.57855095812214</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>9.0808794554898853</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f>_xlfn.FORECAST.LINEAR(K11,L9:L10,K9:K10)</f>
+        <v>65.004820366804609</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>12.116666666523088</v>
+      </c>
+      <c r="L9">
+        <v>66.368333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>14.133333333302289</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9.0808794554898853</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>60.415000000000006</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3.1357870000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <f>_xlfn.FORECAST.LINEAR(K17,$L$15:$L$16,$K$15:$K$16)</f>
+        <v>0.55606703046664929</v>
+      </c>
+      <c r="K10">
+        <v>14.133333333302289</v>
+      </c>
+      <c r="L10" s="4">
+        <v>60.415000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>16.083333333197515</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9.0808794554898853</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>54.108333333333334</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.9024539999999996</v>
+      </c>
+      <c r="G11" s="8">
+        <f>_xlfn.FORECAST.LINEAR(K18,$L$15:$L$16,$K$15:$K$16)</f>
+        <v>1.2534834191918316</v>
+      </c>
+      <c r="K11">
+        <v>12.57855095812214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>19.083333333197515</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>9.0808794554898853</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>49.075000000000003</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9.8691209999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <f>_xlfn.FORECAST.LINEAR(K19,$L$15:$L$16,$K$15:$K$16)</f>
+        <v>2.3264317095959166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>20.416666666511446</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>9.0808794554898853</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>44.514219999999995</v>
+      </c>
+      <c r="F13" s="6">
+        <v>8.0191210000000002</v>
+      </c>
+      <c r="G13" s="8">
+        <f>_xlfn.FORECAST.LINEAR(K20,$L$15:$L$16,$K$15:$K$16)</f>
+        <v>2.8032976164352377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>22.083333333197515</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>37.489400000000003</v>
+      </c>
+      <c r="F14" s="6">
+        <v>12.13579</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3.3993799999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>24.083333333255723</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>31.06202</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10.119120000000001</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4.7225869999999999</v>
+      </c>
+      <c r="K15">
+        <v>12.57855095812214</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>26.083333333313931</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>24.719876666666664</v>
+      </c>
+      <c r="F16" s="6">
+        <v>11.952450000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6.7493470000000002</v>
+      </c>
+      <c r="K16">
+        <v>22.083333333197515</v>
+      </c>
+      <c r="L16" s="6">
+        <v>3.3993799999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>29.083333333313931</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>15.84416666666667</v>
+      </c>
+      <c r="F17" s="6">
+        <v>13.25245</v>
+      </c>
+      <c r="G17" s="6">
+        <v>9.1260370000000002</v>
+      </c>
+      <c r="K17">
+        <v>14.133333333302289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>32.083333333313931</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.5309733333333337</v>
+      </c>
+      <c r="F18" s="6">
+        <v>13.53579</v>
+      </c>
+      <c r="G18" s="6">
+        <v>12.64007</v>
+      </c>
+      <c r="K18">
+        <v>16.083333333197515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>35.083333333313931</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1.7425866666666667</v>
+      </c>
+      <c r="F19" s="6">
+        <v>14.30245</v>
+      </c>
+      <c r="G19" s="6">
+        <v>16.867760000000001</v>
+      </c>
+      <c r="K19">
+        <v>19.083333333197515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>38.083333333313931</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>14.55245</v>
+      </c>
+      <c r="G20" s="6">
+        <v>19.747050000000002</v>
+      </c>
+      <c r="K20">
+        <v>20.416666666511446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>39.833333333255723</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>9.0808794554898906</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>14.23579</v>
+      </c>
+      <c r="G21" s="6">
+        <v>20.563189999999999</v>
       </c>
     </row>
   </sheetData>
@@ -768,222 +1025,222 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>12.303333333333335</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2.116666666581299</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>16.473333333333336</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>4.0833333331975155</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>24.675000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>6.2666666666627862</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>41.156666666666666</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>8.0999999998603016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>59.951666666666668</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>10.083333333197515</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>70.034999999999997</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>12.116666666523088</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>66.368333333333339</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>14.133333333302289</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>60.415000000000006</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>3.1357872111767691</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>16.083333333197515</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>54.108333333333334</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>5.9024538778434632</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>19.083333333197515</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>49.075000000000003</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>9.8691205445100607</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>20.416666666511446</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>44.514219999999995</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>8.0191205445101197</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>22.083333333197515</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>37.489400000000003</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>12.135787211176773</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>24.083333333255723</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>31.06202</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>10.119120544510066</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>26.083333333313931</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>24.719876666666664</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>11.952453877843423</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>29.083333333313931</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>15.84416666666667</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>13.252453877843424</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>32.083333333313931</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>8.5309733333333337</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>13.535787211176801</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>35.083333333313931</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>1.7425866666666667</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>14.302453877843421</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>38.083333333313931</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>14.552453877843503</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>39.833333333255723</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>14.235787211176767</v>
       </c>
     </row>
@@ -1003,130 +1260,130 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2.116666666581299</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>4.0833333331975155</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>6.2666666666627862</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>8.0999999998603016</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>10.083333333197515</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>12.116666666523088</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>22.083333333197515</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>3.3993799999999994</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>24.083333333255723</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>4.7225866666666665</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>26.083333333313931</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>6.7493466666666668</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>29.083333333313931</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>9.1260366666666659</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>32.083333333313931</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>12.640066666666668</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>35.083333333313931</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>16.867763333333333</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>38.083333333313931</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>19.747046666666666</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>39.833333333255723</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>20.563186666666667</v>
       </c>
     </row>
